--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586E51B-EE1B-4AD7-8441-8D3F8A05EB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8B4E2-1EBB-45C8-B8DA-215560BF0A03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>polyunsaturated fat</t>
   </si>
   <si>
-    <t>admd</t>
-  </si>
-  <si>
     <t>total sugar</t>
   </si>
   <si>
@@ -785,6 +782,9 @@
   </si>
   <si>
     <t>all kinds of minced meat</t>
+  </si>
+  <si>
+    <t>dkmd</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>12</v>
@@ -1647,10 +1647,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>7</v>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>44</v>
@@ -1675,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>45</v>
@@ -1689,7 +1689,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>46</v>
@@ -1773,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>57</v>
@@ -1787,7 +1787,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>58</v>
@@ -2011,10 +2011,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>17</v>
@@ -2025,10 +2025,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>17</v>
@@ -2039,10 +2039,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>17</v>
@@ -2053,10 +2053,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>17</v>
@@ -2067,10 +2067,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -2081,10 +2081,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -2095,10 +2095,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -2109,10 +2109,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -2123,10 +2123,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -2137,10 +2137,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -2151,10 +2151,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -2165,10 +2165,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -2179,10 +2179,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -2193,10 +2193,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -2207,10 +2207,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -2221,10 +2221,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2235,10 +2235,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -2249,10 +2249,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -2263,10 +2263,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2277,10 +2277,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -2291,10 +2291,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -2305,10 +2305,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -2319,10 +2319,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
@@ -2333,10 +2333,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -2347,10 +2347,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -2361,10 +2361,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -2375,10 +2375,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
@@ -2389,10 +2389,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -2403,10 +2403,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>145</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -2417,10 +2417,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -2431,10 +2431,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>150</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -2445,10 +2445,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
@@ -2459,10 +2459,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
@@ -2473,10 +2473,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
@@ -2487,10 +2487,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>157</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>158</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
@@ -2501,10 +2501,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>160</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
@@ -2515,10 +2515,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -2529,10 +2529,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
@@ -2543,10 +2543,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -2557,10 +2557,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>168</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -2571,10 +2571,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
@@ -2585,10 +2585,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D89" t="s">
         <v>17</v>
@@ -2599,10 +2599,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>174</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -2613,10 +2613,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
@@ -2627,10 +2627,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
@@ -2641,10 +2641,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -2655,10 +2655,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
@@ -2669,10 +2669,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -2683,10 +2683,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>186</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -2697,10 +2697,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="D97" t="s">
         <v>17</v>
@@ -2711,10 +2711,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -2725,10 +2725,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -2739,10 +2739,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -2753,10 +2753,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
@@ -2767,10 +2767,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -2781,10 +2781,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
@@ -2795,10 +2795,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
@@ -2809,10 +2809,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -2823,10 +2823,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
@@ -2837,10 +2837,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
@@ -2851,10 +2851,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>210</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -2865,10 +2865,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>212</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -2879,10 +2879,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="25" t="s">
         <v>213</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>214</v>
       </c>
       <c r="D110" t="s">
         <v>17</v>
@@ -2893,10 +2893,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -2907,10 +2907,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="D112" t="s">
         <v>17</v>
@@ -2921,10 +2921,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>252</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
@@ -2953,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,84 +3050,84 @@
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="33">
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" s="33">
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="33">
         <v>3</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="33">
         <v>4</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="33">
         <v>5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="33">
         <v>6</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="33">
         <v>7</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3215,29 +3215,29 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,6 +4380,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4620,15 +4629,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4642,6 +4642,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7B5203-47B3-4C9D-894E-AFE841918B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4660,14 +4668,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
   <ds:schemaRefs>

--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8B4E2-1EBB-45C8-B8DA-215560BF0A03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E89CDE-2358-4329-B4A6-FBF029AE7D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,21 @@
     <t>valueType</t>
   </si>
   <si>
+    <t>d_id</t>
+  </si>
+  <si>
     <t>ID of the participant</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>dcsex</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>dtalteru</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>level of education</t>
   </si>
   <si>
+    <t>dtemploy</t>
+  </si>
+  <si>
     <t>employment status</t>
   </si>
   <si>
@@ -160,12 +166,27 @@
     <t>actual hypertension</t>
   </si>
   <si>
+    <t>dtcvd</t>
+  </si>
+  <si>
+    <t>History of cardiovascular disease</t>
+  </si>
+  <si>
+    <t>dtmvcvd</t>
+  </si>
+  <si>
     <t>stroke or MI history of father or mother</t>
   </si>
   <si>
+    <t>dtmvdiab</t>
+  </si>
+  <si>
     <t>diabetes history of father or mother</t>
   </si>
   <si>
+    <t>dtmvca</t>
+  </si>
+  <si>
     <t>cancer history of father or mother</t>
   </si>
   <si>
@@ -199,9 +220,15 @@
     <t>age at end of follow-up or stroke</t>
   </si>
   <si>
+    <t>inz_apo_isc_16</t>
+  </si>
+  <si>
     <t>validated incidence ischaemic stroke</t>
   </si>
   <si>
+    <t>inz_apo_haem_16</t>
+  </si>
+  <si>
     <t>validated incidence haemorrhagic stroke</t>
   </si>
   <si>
@@ -295,6 +322,9 @@
     <t>polyunsaturated fat</t>
   </si>
   <si>
+    <t>dkmd</t>
+  </si>
+  <si>
     <t>total sugar</t>
   </si>
   <si>
@@ -682,6 +712,12 @@
     <t>other processed fruit</t>
   </si>
   <si>
+    <t>DV131</t>
+  </si>
+  <si>
+    <t>all kinds of minced meat</t>
+  </si>
+  <si>
     <t>variable</t>
   </si>
   <si>
@@ -712,6 +748,27 @@
     <t>not specified</t>
   </si>
   <si>
+    <t>employed-full time</t>
+  </si>
+  <si>
+    <t>employed-part time</t>
+  </si>
+  <si>
+    <t>housewife</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>never</t>
   </si>
   <si>
@@ -728,63 +785,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>D_ID</t>
-  </si>
-  <si>
-    <t>DTEMPLOY</t>
-  </si>
-  <si>
-    <t>INZ_APO_ISC_16</t>
-  </si>
-  <si>
-    <t>INZ_APO_HAEM_16</t>
-  </si>
-  <si>
-    <t>DTMVCA</t>
-  </si>
-  <si>
-    <t>DTMVDIAB</t>
-  </si>
-  <si>
-    <t>DTMVCVD</t>
-  </si>
-  <si>
-    <t>DTCVD</t>
-  </si>
-  <si>
-    <t>history CVD</t>
-  </si>
-  <si>
-    <t>employed-full time</t>
-  </si>
-  <si>
-    <t>employed-part time</t>
-  </si>
-  <si>
-    <t>housewife</t>
-  </si>
-  <si>
-    <t>retired</t>
-  </si>
-  <si>
-    <t>unemployed</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>DV131</t>
-  </si>
-  <si>
-    <t>all kinds of minced meat</t>
-  </si>
-  <si>
-    <t>dkmd</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,6 +853,7 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,6 +869,7 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,28 +1000,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{13737B81-E7D5-4987-8CEE-A086C4F3AE3F}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,7 +1029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1333,11 +1327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="18" bestFit="1" customWidth="1"/>
@@ -1365,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1381,13 +1375,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,13 +1389,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,27 +1403,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>235</v>
+      <c r="B6" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,13 +1431,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,13 +1445,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,13 +1473,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1493,13 +1487,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,13 +1501,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,13 +1515,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,13 +1529,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,13 +1543,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,13 +1557,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,13 +1571,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,13 +1585,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,13 +1599,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,13 +1613,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,69 +1627,69 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>242</v>
+      <c r="B22" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>240</v>
+      <c r="B23" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>239</v>
+      <c r="B24" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>238</v>
+      <c r="B25" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,13 +1697,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1717,13 +1711,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1731,41 +1725,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>54</v>
+      <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>56</v>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1773,13 +1767,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1787,41 +1781,41 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>60</v>
+      <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>62</v>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,13 +1823,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1843,13 +1837,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,13 +1851,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,13 +1865,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,13 +1879,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,13 +1893,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,13 +1907,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,13 +1921,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,13 +1935,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,13 +1949,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,13 +1963,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,13 +1977,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,13 +1991,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,13 +2005,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,13 +2019,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,13 +2033,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,13 +2047,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,13 +2061,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,13 +2089,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,13 +2103,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2123,13 +2117,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,13 +2131,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2151,13 +2145,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2165,13 +2159,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,13 +2173,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2193,13 +2187,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2207,13 +2201,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,13 +2215,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2235,13 +2229,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,13 +2243,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,13 +2257,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,13 +2271,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,13 +2285,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,13 +2299,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,13 +2313,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,13 +2327,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2347,13 +2341,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2361,13 +2355,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2375,13 +2369,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,13 +2383,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,13 +2397,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,13 +2411,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,13 +2425,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,13 +2439,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,13 +2453,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2473,13 +2467,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2487,13 +2481,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,13 +2495,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,13 +2509,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,13 +2523,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,13 +2537,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,13 +2551,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,13 +2565,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,13 +2579,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,13 +2593,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,13 +2607,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,13 +2621,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,13 +2635,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,13 +2649,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,13 +2663,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,13 +2677,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,13 +2691,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2711,13 +2705,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,13 +2719,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2739,13 +2733,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,13 +2747,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2767,13 +2761,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,13 +2775,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,13 +2789,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,13 +2803,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,13 +2817,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,13 +2831,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,13 +2845,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,13 +2859,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,13 +2873,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,13 +2887,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,13 +2901,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2921,13 +2915,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2940,11 +2934,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9C4F-4DB8-4E79-A3FD-0B1BDC762B9F}">
   <dimension ref="A1:D347"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -2953,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -2962,480 +2956,480 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="17">
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="17">
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="33">
+        <v>13</v>
+      </c>
+      <c r="B10" s="28">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>243</v>
+      <c r="C10" s="28" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="33">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>244</v>
+      <c r="C11" s="28" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="33">
+        <v>13</v>
+      </c>
+      <c r="B12" s="28">
         <v>3</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="33">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28">
         <v>4</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
         <v>5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="33">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28">
         <v>6</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="33">
+        <v>13</v>
+      </c>
+      <c r="B16" s="28">
         <v>7</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="17">
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="17">
         <v>4</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="17">
         <v>0</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="17">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="17">
         <v>0</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="17">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B28" s="17">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B30" s="17">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B31" s="17">
         <v>0</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B32" s="17">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B34" s="17">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B35" s="17">
         <v>0</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B36" s="17">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B37" s="17">
         <v>0</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B38" s="17">
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B39" s="17">
         <v>0</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B40" s="17">
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B41" s="17">
         <v>0</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B42" s="17">
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B43" s="17">
         <v>0</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B44" s="17">
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,12 +4374,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4630,27 +4627,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7B5203-47B3-4C9D-894E-AFE841918B2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4669,12 +4672,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E89CDE-2358-4329-B4A6-FBF029AE7D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D0435-22F2-4D3B-9C42-B4C142482E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{13737B81-E7D5-4987-8CEE-A086C4F3AE3F}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1327,18 +1327,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1395,10 +1395,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2934,18 +2934,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9C4F-4DB8-4E79-A3FD-0B1BDC762B9F}">
   <dimension ref="A1:D347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>230</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>58</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>68</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>70</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>72</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>76</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>76</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>78</v>
       </c>
@@ -3432,939 +3432,939 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="17"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="17"/>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="17"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="17"/>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="17"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="17"/>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="17"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="17"/>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="17"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="17"/>
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="17"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="14"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="14"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="14"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="14"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="14"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="14"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="14"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="14"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="14"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="14"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="14"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="14"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="14"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="14"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="14"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="14"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="14"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="14"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="14"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="14"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="14"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="14"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="14"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="14"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="14"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="14"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="14"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="14"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="14"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="14"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="14"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="14"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="14"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="14"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="14"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="14"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="14"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="14"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="14"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="14"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="14"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="14"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="11"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="14"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="11"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="14"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="11"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="14"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="14"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="14"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="8"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="8"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="8"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="8"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="8"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="8"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="8"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="8"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="8"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="8"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="8"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="8"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="8"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="8"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="8"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="8"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="8"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="8"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="8"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="8"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="8"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="8"/>
     </row>
   </sheetData>
@@ -4386,6 +4386,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4626,15 +4635,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
   <ds:schemaRefs>
@@ -4653,6 +4653,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4669,12 +4677,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D0435-22F2-4D3B-9C42-B4C142482E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B184D0F-96F9-4649-8F74-537C232596CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" activeTab="1" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="253">
   <si>
     <t>index</t>
   </si>
@@ -1327,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E113" sqref="A1:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,493 +1385,495 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="3">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>31</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="A21" s="3">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>57</v>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>13</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
+      <c r="D35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="3">
+        <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2925,6 +2927,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E113">
+    <sortCondition descending="1" ref="D2:D113"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2934,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9C4F-4DB8-4E79-A3FD-0B1BDC762B9F}">
   <dimension ref="A1:D347"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3433,54 +3438,114 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="16"/>
+      <c r="A49" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
+      <c r="A51" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="17">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
@@ -4386,15 +4451,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4635,6 +4691,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
   <ds:schemaRefs>
@@ -4653,14 +4718,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4677,4 +4734,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B184D0F-96F9-4649-8F74-537C232596CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" activeTab="1" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="255">
   <si>
     <t>index</t>
   </si>
@@ -322,12 +321,6 @@
     <t>polyunsaturated fat</t>
   </si>
   <si>
-    <t>dkmd</t>
-  </si>
-  <si>
-    <t>total sugar</t>
-  </si>
-  <si>
     <t>dkmt</t>
   </si>
   <si>
@@ -785,12 +778,24 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>monosaccharides</t>
+  </si>
+  <si>
+    <t>disaccharides</t>
+  </si>
+  <si>
+    <t>dmosa</t>
+  </si>
+  <si>
+    <t>ddisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1012,7 +1017,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{13737B81-E7D5-4987-8CEE-A086C4F3AE3F}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1324,21 +1329,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
-  <dimension ref="A1:F113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E113" sqref="A1:E113"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1359,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1370,7 +1375,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1413,7 +1418,7 @@
       </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1428,7 +1433,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>19</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>21</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>22</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>23</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>24</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>25</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>26</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>28</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1568,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>31</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>37</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>14</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>15</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>16</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>17</v>
       </c>
@@ -1806,7 +1811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>18</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>27</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>29</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -1876,7 +1881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1988,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2002,927 +2007,941 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C55" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="25" t="s">
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C56" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>115</v>
-      </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C61" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="25" t="s">
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C62" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>127</v>
-      </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>128</v>
+      <c r="B63" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C74" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="D74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>154</v>
+      <c r="B76" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C79" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
-      <c r="B78" s="26" t="s">
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C80" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>163</v>
-      </c>
       <c r="D80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C85" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C86" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="D86" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C91" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8" t="s">
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C92" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>91</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C97" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>95</v>
-      </c>
-      <c r="B96" s="25" t="s">
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C98" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>97</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>199</v>
-      </c>
       <c r="D98" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C103" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>101</v>
-      </c>
-      <c r="B102" s="25" t="s">
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C104" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>103</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="D104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C109" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>107</v>
-      </c>
-      <c r="B108" s="25" t="s">
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C110" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="D108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>109</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>223</v>
-      </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="D113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2936,23 +2955,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9C4F-4DB8-4E79-A3FD-0B1BDC762B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -2961,10 +2980,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2972,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2983,10 +3002,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2994,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -3005,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3016,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3027,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3038,10 +3057,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3049,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3060,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3071,10 +3090,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3082,10 +3101,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3093,10 +3112,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3104,10 +3123,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3115,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3126,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3137,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,10 +3167,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -3159,10 +3178,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3170,10 +3189,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -3181,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3192,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3203,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3214,10 +3233,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3225,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -3236,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3247,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -3258,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -3269,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -3280,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
@@ -3291,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>58</v>
       </c>
@@ -3302,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
@@ -3313,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
@@ -3324,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
@@ -3335,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>68</v>
       </c>
@@ -3346,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>70</v>
       </c>
@@ -3357,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>70</v>
       </c>
@@ -3368,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -3379,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>72</v>
       </c>
@@ -3390,10 +3409,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>76</v>
       </c>
@@ -3401,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>76</v>
       </c>
@@ -3412,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
@@ -3423,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>78</v>
       </c>
@@ -3434,10 +3453,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>64</v>
       </c>
@@ -3445,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>64</v>
       </c>
@@ -3456,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>66</v>
       </c>
@@ -3467,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>66</v>
       </c>
@@ -3478,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>48</v>
       </c>
@@ -3489,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>48</v>
       </c>
@@ -3500,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>50</v>
       </c>
@@ -3511,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>50</v>
       </c>
@@ -3522,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>52</v>
       </c>
@@ -3533,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>52</v>
       </c>
@@ -3544,892 +3563,892 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="17"/>
       <c r="C55" s="16"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="17"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="11"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="11"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="11"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="11"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="11"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="11"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="11"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="11"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="11"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="11"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="13"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="13"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="11"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="11"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="11"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="11"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="11"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="11"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="11"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="11"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="11"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="11"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="11"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="11"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="11"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="11"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="11"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="11"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="11"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="11"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="11"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="11"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="11"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="11"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="11"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="11"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="11"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="11"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="11"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="11"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="11"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="11"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="11"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="11"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="11"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="11"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="11"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="11"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="11"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="11"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="11"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="9"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="11"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="9"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="11"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="11"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="11"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="14"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="14"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="14"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="9"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="9"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="9"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="8"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="8"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="8"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="8"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="8"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="8"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="8"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="8"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="8"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="8"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="8"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="8"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="8"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="8"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="8"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="8"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="8"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="8"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="8"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="8"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="8"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="8"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="8"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="8"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="8"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="8"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="8"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="8"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="8"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="8"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="8"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="8"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="8"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="8"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="8"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="8"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="8"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="8"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="8"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="8"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" s="8"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" s="8"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" s="8"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" s="8"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="8"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="8"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="8"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" s="8"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" s="8"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" s="8"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" s="8"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" s="8"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" s="8"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" s="8"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" s="8"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" s="8"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" s="8"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" s="8"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" s="8"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" s="8"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" s="8"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" s="8"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" s="8"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" s="8"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" s="8"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" s="8"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" s="8"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" s="8"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" s="8"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" s="8"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" s="8"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" s="8"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" s="8"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" s="8"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" s="8"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" s="8"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" s="8"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" s="8"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" s="8"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" s="8"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" s="8"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" s="8"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" s="8"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" s="8"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" s="8"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="8"/>
     </row>
   </sheetData>
@@ -4439,18 +4458,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4691,6 +4698,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4701,23 +4720,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4736,6 +4738,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
   <ds:schemaRefs>

--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
   <si>
     <t>index</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>ddisa</t>
+  </si>
+  <si>
+    <t>I don't know</t>
   </si>
 </sst>
 </file>
@@ -909,18 +912,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -969,9 +966,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1015,6 +1009,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1332,14 +1329,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1350,7 +1347,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1399,7 +1396,7 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1407,18 +1404,18 @@
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1443,7 +1440,7 @@
       <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1457,7 +1454,7 @@
       <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1465,13 +1462,13 @@
       <c r="A9" s="3">
         <v>21</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1479,13 +1476,13 @@
       <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1493,13 +1490,13 @@
       <c r="A11" s="3">
         <v>23</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1507,13 +1504,13 @@
       <c r="A12">
         <v>24</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1527,7 +1524,7 @@
       <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1555,7 +1552,7 @@
       <c r="C15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1563,13 +1560,13 @@
       <c r="A16">
         <v>30</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1577,13 +1574,13 @@
       <c r="A17" s="3">
         <v>31</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1667,7 +1664,7 @@
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1745,10 +1742,10 @@
       <c r="A29" s="3">
         <v>13</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
@@ -1759,7 +1756,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2081,10 +2078,10 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D53" t="s">
@@ -2095,10 +2092,10 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>107</v>
       </c>
       <c r="D54" t="s">
@@ -2109,10 +2106,10 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D55" t="s">
@@ -2123,10 +2120,10 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D56" t="s">
@@ -2140,7 +2137,7 @@
       <c r="B57" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D57" t="s">
@@ -2154,7 +2151,7 @@
       <c r="B58" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D58" t="s">
@@ -2168,7 +2165,7 @@
       <c r="B59" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D59" t="s">
@@ -2179,10 +2176,10 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D60" t="s">
@@ -2193,7 +2190,7 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2210,7 +2207,7 @@
       <c r="B62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>123</v>
       </c>
       <c r="D62" t="s">
@@ -2224,7 +2221,7 @@
       <c r="B63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>125</v>
       </c>
       <c r="D63" t="s">
@@ -2235,10 +2232,10 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D64" t="s">
@@ -2249,10 +2246,10 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D65" t="s">
@@ -2263,10 +2260,10 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="24" t="s">
         <v>131</v>
       </c>
       <c r="D66" t="s">
@@ -2364,7 +2361,7 @@
       <c r="B73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D73" t="s">
@@ -2392,7 +2389,7 @@
       <c r="B75" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="23" t="s">
         <v>149</v>
       </c>
       <c r="D75" t="s">
@@ -2406,7 +2403,7 @@
       <c r="B76" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="24" t="s">
         <v>151</v>
       </c>
       <c r="D76" t="s">
@@ -2417,10 +2414,10 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D77" t="s">
@@ -2434,7 +2431,7 @@
       <c r="B78" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="24" t="s">
         <v>155</v>
       </c>
       <c r="D78" t="s">
@@ -2445,10 +2442,10 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="26" t="s">
         <v>157</v>
       </c>
       <c r="D79" t="s">
@@ -2462,7 +2459,7 @@
       <c r="B80" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>159</v>
       </c>
       <c r="D80" t="s">
@@ -2476,7 +2473,7 @@
       <c r="B81" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>161</v>
       </c>
       <c r="D81" t="s">
@@ -2490,7 +2487,7 @@
       <c r="B82" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>163</v>
       </c>
       <c r="D82" t="s">
@@ -2504,7 +2501,7 @@
       <c r="B83" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>165</v>
       </c>
       <c r="D83" t="s">
@@ -2518,7 +2515,7 @@
       <c r="B84" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>167</v>
       </c>
       <c r="D84" t="s">
@@ -2546,7 +2543,7 @@
       <c r="B86" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="23" t="s">
         <v>171</v>
       </c>
       <c r="D86" t="s">
@@ -2574,7 +2571,7 @@
       <c r="B88" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D88" t="s">
@@ -2588,7 +2585,7 @@
       <c r="B89" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D89" t="s">
@@ -2616,7 +2613,7 @@
       <c r="B91" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="24" t="s">
         <v>181</v>
       </c>
       <c r="D91" t="s">
@@ -2630,7 +2627,7 @@
       <c r="B92" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="24" t="s">
         <v>183</v>
       </c>
       <c r="D92" t="s">
@@ -2644,7 +2641,7 @@
       <c r="B93" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="24" t="s">
         <v>185</v>
       </c>
       <c r="D93" t="s">
@@ -2683,10 +2680,10 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D96" t="s">
@@ -2697,10 +2694,10 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="24" t="s">
         <v>193</v>
       </c>
       <c r="D97" t="s">
@@ -2711,10 +2708,10 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>195</v>
       </c>
       <c r="D98" t="s">
@@ -2725,10 +2722,10 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="24" t="s">
         <v>197</v>
       </c>
       <c r="D99" t="s">
@@ -2739,10 +2736,10 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="24" t="s">
         <v>199</v>
       </c>
       <c r="D100" t="s">
@@ -2753,10 +2750,10 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="24" t="s">
         <v>201</v>
       </c>
       <c r="D101" t="s">
@@ -2767,10 +2764,10 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="24" t="s">
         <v>203</v>
       </c>
       <c r="D102" t="s">
@@ -2781,10 +2778,10 @@
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="24" t="s">
         <v>205</v>
       </c>
       <c r="D103" t="s">
@@ -2865,10 +2862,10 @@
       <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="24" t="s">
         <v>217</v>
       </c>
       <c r="D109" t="s">
@@ -2879,10 +2876,10 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="24" t="s">
         <v>219</v>
       </c>
       <c r="D110" t="s">
@@ -2896,7 +2893,7 @@
       <c r="B111" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="24" t="s">
         <v>221</v>
       </c>
       <c r="D111" t="s">
@@ -2910,7 +2907,7 @@
       <c r="B112" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D112" t="s">
@@ -2924,7 +2921,7 @@
       <c r="B113" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D113" t="s">
@@ -2938,7 +2935,7 @@
       <c r="B114" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D114" t="s">
@@ -2956,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D347"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2969,17 +2966,17 @@
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3009,10 +3006,10 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3020,10 +3017,10 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3031,10 +3028,10 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3042,10 +3039,10 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3053,10 +3050,10 @@
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3064,10 +3061,10 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3075,10 +3072,10 @@
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3086,10 +3083,10 @@
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3097,10 +3094,10 @@
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3108,10 +3105,10 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3119,10 +3116,10 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3130,10 +3127,10 @@
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>6</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3141,10 +3138,10 @@
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3152,10 +3149,10 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>1</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3163,10 +3160,10 @@
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3174,10 +3171,10 @@
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3185,10 +3182,10 @@
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>4</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3196,10 +3193,10 @@
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>0</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3207,7 +3204,7 @@
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3218,10 +3215,10 @@
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>0</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3229,7 +3226,7 @@
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3240,10 +3237,10 @@
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>0</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3251,7 +3248,7 @@
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3262,10 +3259,10 @@
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>0</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3273,7 +3270,7 @@
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3284,10 +3281,10 @@
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>0</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3295,7 +3292,7 @@
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3306,10 +3303,10 @@
       <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>0</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3317,7 +3314,7 @@
       <c r="A32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3328,10 +3325,10 @@
       <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>0</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3339,7 +3336,7 @@
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3350,10 +3347,10 @@
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>0</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3361,7 +3358,7 @@
       <c r="A36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3372,10 +3369,10 @@
       <c r="A37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>0</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3383,7 +3380,7 @@
       <c r="A38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3394,10 +3391,10 @@
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>0</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3405,7 +3402,7 @@
       <c r="A40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3416,10 +3413,10 @@
       <c r="A41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>0</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3427,7 +3424,7 @@
       <c r="A42" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3438,10 +3435,10 @@
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>0</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3449,7 +3446,7 @@
       <c r="A44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3457,21 +3454,21 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3479,21 +3476,21 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>0</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3501,10 +3498,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3512,10 +3509,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>1</v>
       </c>
       <c r="C50" t="s">
@@ -3523,183 +3520,205 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B52" s="16">
         <v>0</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B53" s="16">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="16">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B55" s="16">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B56" s="16">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="4"/>
-    </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="16">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="14"/>
+      <c r="A64" s="31"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="14"/>
+      <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14"/>
+      <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="14"/>
+      <c r="A73" s="13"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="14"/>
+      <c r="A75" s="13"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
+      <c r="A76" s="13"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14"/>
+      <c r="A77" s="13"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="14"/>
+      <c r="A78" s="11"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="14"/>
+      <c r="A79" s="13"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
+      <c r="A82" s="13"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
+      <c r="A85" s="13"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
+      <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="14"/>
+      <c r="A89" s="11"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="14"/>
+      <c r="A90" s="11"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="14"/>
+      <c r="A91" s="13"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
+      <c r="A92" s="13"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
+      <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="11"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="14"/>
+      <c r="A95" s="11"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="11"/>
+      <c r="A97" s="13"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
@@ -3708,43 +3727,43 @@
       <c r="A99" s="11"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="14"/>
+      <c r="A100" s="11"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="14"/>
+      <c r="A101" s="11"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="11"/>
+      <c r="A102" s="13"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="11"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="14"/>
+      <c r="A104" s="11"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="14"/>
+      <c r="A105" s="11"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="11"/>
+      <c r="A106" s="13"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="14"/>
+      <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="14"/>
+      <c r="A108" s="11"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="14"/>
+      <c r="A109" s="13"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="11"/>
+      <c r="A110" s="13"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="11"/>
+      <c r="A111" s="13"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="14"/>
+      <c r="A112" s="11"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="11"/>
@@ -3753,163 +3772,163 @@
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="13"/>
+      <c r="A115" s="11"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="14"/>
+      <c r="A116" s="12"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="14"/>
+      <c r="A117" s="12"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="11"/>
+      <c r="A118" s="13"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="14"/>
+      <c r="A119" s="13"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="11"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="11"/>
+      <c r="A121" s="13"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="14"/>
+      <c r="A122" s="11"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="14"/>
+      <c r="A123" s="11"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="11"/>
+      <c r="A124" s="13"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="14"/>
+      <c r="A125" s="13"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="11"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="14"/>
+      <c r="A127" s="13"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="14"/>
+      <c r="A128" s="11"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="14"/>
+      <c r="A129" s="13"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="14"/>
+      <c r="A130" s="13"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="14"/>
+      <c r="A131" s="13"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="14"/>
+      <c r="A132" s="13"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="14"/>
+      <c r="A133" s="13"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="14"/>
+      <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="11"/>
+      <c r="A135" s="13"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="14"/>
+      <c r="A136" s="13"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="14"/>
+      <c r="A137" s="11"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="11"/>
+      <c r="A138" s="13"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="11"/>
+      <c r="A139" s="13"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="14"/>
+      <c r="A140" s="11"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="11"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="14"/>
+      <c r="A142" s="13"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="11"/>
+      <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="11"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="14"/>
+      <c r="A146" s="11"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="11"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="11"/>
+      <c r="A148" s="13"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="14"/>
+      <c r="A149" s="11"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="11"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="11"/>
+      <c r="A151" s="13"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="11"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="14"/>
+      <c r="A153" s="11"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="11"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="11"/>
+      <c r="A155" s="13"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="11"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="14"/>
+      <c r="A157" s="11"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="11"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="11"/>
+      <c r="A159" s="13"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="11"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="14"/>
+      <c r="A161" s="11"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="11"/>
+      <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="11"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="14"/>
+      <c r="A165" s="11"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="11"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="11"/>
+      <c r="A167" s="13"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
@@ -3930,40 +3949,40 @@
       <c r="A173" s="11"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="14"/>
+      <c r="A174" s="11"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="14"/>
+      <c r="A175" s="11"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="14"/>
+      <c r="A176" s="13"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="14"/>
+      <c r="A177" s="13"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="14"/>
+      <c r="A178" s="13"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="14"/>
+      <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="14"/>
+      <c r="A180" s="13"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="11"/>
+      <c r="A181" s="13"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="14"/>
+      <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="14"/>
+      <c r="A183" s="11"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="11"/>
+      <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="11"/>
+      <c r="A185" s="13"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="11"/>
@@ -3972,214 +3991,214 @@
       <c r="A187" s="11"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="14"/>
+      <c r="A188" s="11"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="14"/>
+      <c r="A189" s="11"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="14"/>
+      <c r="A190" s="13"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="14"/>
+      <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="14"/>
+      <c r="A192" s="13"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="14"/>
+      <c r="A193" s="13"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="14"/>
+      <c r="A194" s="13"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="14"/>
+      <c r="A195" s="13"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="14"/>
+      <c r="A196" s="13"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="14"/>
+      <c r="A197" s="13"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="14"/>
+      <c r="A198" s="13"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="11"/>
+      <c r="A199" s="13"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="14"/>
+      <c r="A200" s="13"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="11"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="11"/>
+      <c r="A202" s="13"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="14"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="11"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="14"/>
+      <c r="A205" s="13"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="14"/>
+      <c r="A206" s="11"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="14"/>
+      <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="14"/>
+      <c r="A208" s="13"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="14"/>
+      <c r="A209" s="13"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="14"/>
+      <c r="A210" s="13"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="14"/>
+      <c r="A211" s="13"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="14"/>
+      <c r="A212" s="13"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="11"/>
+      <c r="A213" s="13"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="14"/>
+      <c r="A214" s="13"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="14"/>
+      <c r="A215" s="11"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="9"/>
+      <c r="A216" s="13"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="14"/>
+      <c r="A217" s="13"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="11"/>
+      <c r="A218" s="9"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="9"/>
+      <c r="A219" s="13"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="9"/>
+      <c r="A220" s="11"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="14"/>
+      <c r="A221" s="9"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="14"/>
+      <c r="A222" s="9"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="14"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="14"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="14"/>
+      <c r="A225" s="13"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="11"/>
+      <c r="A226" s="13"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="14"/>
+      <c r="A227" s="13"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="14"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="14"/>
+      <c r="A229" s="13"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="14"/>
+      <c r="A230" s="13"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="14"/>
+      <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="14"/>
+      <c r="A232" s="13"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="14"/>
+      <c r="A233" s="13"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="14"/>
+      <c r="A234" s="13"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="14"/>
+      <c r="A235" s="13"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="14"/>
+      <c r="A236" s="13"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="14"/>
+      <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="14"/>
+      <c r="A238" s="13"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="14"/>
+      <c r="A239" s="13"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="14"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="14"/>
+      <c r="A241" s="13"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="14"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="14"/>
+      <c r="A243" s="13"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="14"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="14"/>
+      <c r="A245" s="13"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="14"/>
+      <c r="A246" s="13"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="14"/>
+      <c r="A247" s="13"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="11"/>
+      <c r="A248" s="13"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="14"/>
+      <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="11"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="14"/>
+      <c r="A251" s="13"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="11"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="14"/>
+      <c r="A253" s="13"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="14"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="14"/>
+      <c r="A255" s="13"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="9"/>
+      <c r="A256" s="13"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="9"/>
+      <c r="A257" s="13"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="9"/>
@@ -4191,10 +4210,10 @@
       <c r="A260" s="9"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="8"/>
+      <c r="A261" s="9"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="8"/>
+      <c r="A262" s="9"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="8"/>
@@ -4450,6 +4469,12 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="8"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="8"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4458,6 +4483,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4698,42 +4744,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4756,9 +4770,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -786,13 +786,13 @@
     <t>disaccharides</t>
   </si>
   <si>
-    <t>dmosa</t>
-  </si>
-  <si>
-    <t>ddisa</t>
-  </si>
-  <si>
     <t>I don't know</t>
+  </si>
+  <si>
+    <t>dkmosa</t>
+  </si>
+  <si>
+    <t>dkdisa</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2009,7 +2009,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>251</v>
@@ -2023,7 +2023,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>252</v>
@@ -2955,7 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -3527,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -3560,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -4492,18 +4492,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4744,6 +4732,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
   <ds:schemaRefs>
@@ -4753,23 +4753,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4786,4 +4769,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA80532-7E0C-4D32-AAAC-17C062D667C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="255">
   <si>
     <t>index</t>
   </si>
@@ -718,9 +719,6 @@
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
   </si>
   <si>
     <t>none</t>
@@ -798,7 +796,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,8 +1012,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,21 +1324,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1354,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1372,7 +1370,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1386,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1415,7 +1413,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1430,7 +1428,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>19</v>
       </c>
@@ -1444,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1458,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>21</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>23</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>25</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -1542,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1570,7 +1568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>31</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1598,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>37</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1654,7 +1652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -1668,7 +1666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -1724,7 +1722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>15</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>17</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -1822,7 +1820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>27</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>29</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -1864,7 +1862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1892,7 +1890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1906,7 +1904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2004,35 +2002,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2144,7 +2142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2172,7 +2170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2186,7 +2184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2200,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2214,7 +2212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2242,7 +2240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2256,7 +2254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2326,7 +2324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2368,7 +2366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2410,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2424,7 +2422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2606,7 +2604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2634,7 +2632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2662,7 +2660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2676,7 +2674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2718,7 +2716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2732,7 +2730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2746,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2760,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -2788,7 +2786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -2830,7 +2828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2844,7 +2842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2886,7 +2884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2900,7 +2898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2928,7 +2926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2952,21 +2950,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D349"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D348"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>228</v>
       </c>
@@ -2980,7 +2978,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2991,1490 +2989,1479 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="16">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="27">
-        <v>2</v>
-      </c>
-      <c r="C11" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="27">
-        <v>7</v>
-      </c>
-      <c r="C16" s="15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="16">
-        <v>4</v>
-      </c>
-      <c r="C20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="16">
         <v>0</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="16">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="16">
         <v>0</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="16">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="16">
         <v>0</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="16">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="16">
         <v>0</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="16">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="16">
         <v>0</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="16">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="16">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="16">
         <v>0</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="16">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="16">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="16">
         <v>0</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="16">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="16">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="16">
         <v>0</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="16">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="16">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="16">
         <v>0</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="16">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="16">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="16">
         <v>0</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="16">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="16">
         <v>0</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="16">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C44" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="16">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="16">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C46" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="16">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="16">
         <v>0</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="16">
-        <v>1</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="16">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="16">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="16">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="16">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" s="16">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="16">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="16">
         <v>2</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C56" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="31"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="13"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="13"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="13"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="13"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="13"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="11"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="13"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="11"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="13"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="11"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="13"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="11"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="13"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="11"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="12"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="13"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="11"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="13"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="11"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="13"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="11"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="13"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="11"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="13"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="11"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="13"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="11"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="13"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="11"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="13"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="11"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="13"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="11"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="13"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="11"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="13"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="11"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="13"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="11"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="13"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="11"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="13"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="11"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="11"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="13"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="11"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="13"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="11"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="13"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="11"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="13"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="11"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="11"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="13"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="11"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="13"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="11"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="11"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="13"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="9"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="13"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="11"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="9"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="13"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="11"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="11"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="13"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="11"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="13"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="11"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="13"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="11"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="11"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="13"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="11"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="11"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="13"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="9"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="9"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A349" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4492,6 +4479,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4732,18 +4731,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
   <ds:schemaRefs>
@@ -4753,6 +4740,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4769,21 +4773,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84A691B-EF98-4CD8-ACB1-815521123DAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S3_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9592AE-63BA-40FD-8F18-9BC92AF499F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F20048-73F1-4614-ADAC-76350ADF2A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -769,15 +769,9 @@
     <t>dkdisa</t>
   </si>
   <si>
-    <t>DI13ABSC</t>
-  </si>
-  <si>
     <t>highest school or university degree</t>
   </si>
   <si>
-    <t>DI14ABSC</t>
-  </si>
-  <si>
     <t>highest vocational degree</t>
   </si>
   <si>
@@ -806,6 +800,12 @@
   </si>
   <si>
     <t>Ingenieur-Schule/Polytechnikum</t>
+  </si>
+  <si>
+    <t>di13absc</t>
+  </si>
+  <si>
+    <t>di14absc</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,7 +1016,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1348,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,11 +1408,11 @@
       <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>6</v>
@@ -1423,11 +1422,11 @@
       <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>249</v>
+      <c r="B5" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>6</v>
@@ -1440,10 +1439,10 @@
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="14"/>
@@ -1473,7 +1472,7 @@
       <c r="C8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1487,7 +1486,7 @@
       <c r="C9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1498,10 +1497,10 @@
       <c r="B10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1512,10 +1511,10 @@
       <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1526,10 +1525,10 @@
       <c r="B12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1540,10 +1539,10 @@
       <c r="B13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1557,7 +1556,7 @@
       <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1585,7 +1584,7 @@
       <c r="C16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1599,7 +1598,7 @@
       <c r="C17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1613,7 +1612,7 @@
       <c r="C18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1697,7 +1696,7 @@
       <c r="C24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1775,10 +1774,10 @@
       <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -1789,7 +1788,7 @@
       <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -2069,7 +2068,7 @@
       <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2111,10 +2110,10 @@
       <c r="A54" s="24">
         <v>53</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -2125,10 +2124,10 @@
       <c r="A55" s="24">
         <v>54</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>105</v>
       </c>
       <c r="D55" s="25" t="s">
@@ -2139,10 +2138,10 @@
       <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -2153,10 +2152,10 @@
       <c r="A57" s="24">
         <v>56</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -2170,7 +2169,7 @@
       <c r="B58" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>111</v>
       </c>
       <c r="D58" s="25" t="s">
@@ -2184,7 +2183,7 @@
       <c r="B59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="33" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="25" t="s">
@@ -2198,7 +2197,7 @@
       <c r="B60" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="33" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="25" t="s">
@@ -2209,10 +2208,10 @@
       <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -2223,7 +2222,7 @@
       <c r="A62" s="24">
         <v>61</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -2240,7 +2239,7 @@
       <c r="B63" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -2254,7 +2253,7 @@
       <c r="B64" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="25" t="s">
@@ -2265,10 +2264,10 @@
       <c r="A65" s="24">
         <v>64</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="33" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -2279,10 +2278,10 @@
       <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -2293,10 +2292,10 @@
       <c r="A67" s="24">
         <v>66</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>129</v>
       </c>
       <c r="D67" s="25" t="s">
@@ -2394,7 +2393,7 @@
       <c r="B74" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>143</v>
       </c>
       <c r="D74" s="25" t="s">
@@ -2436,7 +2435,7 @@
       <c r="B77" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="33" t="s">
         <v>149</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -2447,10 +2446,10 @@
       <c r="A78" s="25">
         <v>77</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="33" t="s">
         <v>151</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -2464,7 +2463,7 @@
       <c r="B79" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="33" t="s">
         <v>153</v>
       </c>
       <c r="D79" s="25" t="s">
@@ -2475,10 +2474,10 @@
       <c r="A80" s="24">
         <v>79</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D80" s="25" t="s">
@@ -2492,7 +2491,7 @@
       <c r="B81" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="33" t="s">
         <v>157</v>
       </c>
       <c r="D81" s="25" t="s">
@@ -2506,7 +2505,7 @@
       <c r="B82" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="33" t="s">
         <v>159</v>
       </c>
       <c r="D82" s="25" t="s">
@@ -2520,7 +2519,7 @@
       <c r="B83" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="33" t="s">
         <v>161</v>
       </c>
       <c r="D83" s="25" t="s">
@@ -2534,7 +2533,7 @@
       <c r="B84" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="33" t="s">
         <v>163</v>
       </c>
       <c r="D84" s="25" t="s">
@@ -2548,7 +2547,7 @@
       <c r="B85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="33" t="s">
         <v>165</v>
       </c>
       <c r="D85" s="25" t="s">
@@ -2604,7 +2603,7 @@
       <c r="B89" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="33" t="s">
         <v>173</v>
       </c>
       <c r="D89" s="25" t="s">
@@ -2618,7 +2617,7 @@
       <c r="B90" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="33" t="s">
         <v>175</v>
       </c>
       <c r="D90" s="25" t="s">
@@ -2646,7 +2645,7 @@
       <c r="B92" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="33" t="s">
         <v>179</v>
       </c>
       <c r="D92" s="25" t="s">
@@ -2660,7 +2659,7 @@
       <c r="B93" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D93" s="25" t="s">
@@ -2674,7 +2673,7 @@
       <c r="B94" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="33" t="s">
         <v>183</v>
       </c>
       <c r="D94" s="25" t="s">
@@ -2713,10 +2712,10 @@
       <c r="A97" s="24">
         <v>96</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="33" t="s">
         <v>189</v>
       </c>
       <c r="D97" s="25" t="s">
@@ -2727,10 +2726,10 @@
       <c r="A98" s="25">
         <v>97</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="33" t="s">
         <v>191</v>
       </c>
       <c r="D98" s="25" t="s">
@@ -2741,10 +2740,10 @@
       <c r="A99" s="24">
         <v>98</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="33" t="s">
         <v>193</v>
       </c>
       <c r="D99" s="25" t="s">
@@ -2755,10 +2754,10 @@
       <c r="A100" s="24">
         <v>99</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="25" t="s">
@@ -2769,10 +2768,10 @@
       <c r="A101" s="25">
         <v>100</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="33" t="s">
         <v>197</v>
       </c>
       <c r="D101" s="25" t="s">
@@ -2783,10 +2782,10 @@
       <c r="A102" s="24">
         <v>101</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="33" t="s">
         <v>199</v>
       </c>
       <c r="D102" s="25" t="s">
@@ -2797,10 +2796,10 @@
       <c r="A103" s="25">
         <v>102</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="33" t="s">
         <v>201</v>
       </c>
       <c r="D103" s="25" t="s">
@@ -2811,10 +2810,10 @@
       <c r="A104" s="24">
         <v>103</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="33" t="s">
         <v>203</v>
       </c>
       <c r="D104" s="25" t="s">
@@ -2895,10 +2894,10 @@
       <c r="A110" s="24">
         <v>109</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="33" t="s">
         <v>215</v>
       </c>
       <c r="D110" s="25" t="s">
@@ -2909,10 +2908,10 @@
       <c r="A111" s="25">
         <v>110</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="33" t="s">
         <v>217</v>
       </c>
       <c r="D111" s="25" t="s">
@@ -2926,7 +2925,7 @@
       <c r="B112" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="33" t="s">
         <v>219</v>
       </c>
       <c r="D112" s="25" t="s">
@@ -2940,7 +2939,7 @@
       <c r="B113" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="33" t="s">
         <v>221</v>
       </c>
       <c r="D113" s="25" t="s">
@@ -2954,7 +2953,7 @@
       <c r="B114" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="33" t="s">
         <v>223</v>
       </c>
       <c r="D114" s="25" t="s">
@@ -2968,7 +2967,7 @@
       <c r="B115" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="28" t="s">
         <v>225</v>
       </c>
       <c r="D115" s="25" t="s">
@@ -2988,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,134 +3025,134 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,6 +4570,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4811,42 +4831,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4869,9 +4857,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373398BC-AB18-4DB6-A1F8-8358A59BBA75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981C8453-1A31-4F97-BF69-09535CFA9398}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>